--- a/AutoBrain/Files/Device_replacement.xlsx
+++ b/AutoBrain/Files/Device_replacement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>device_number</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>Marked On: 25/03/2021 11:35 PM</t>
+  </si>
+  <si>
+    <t>4826318737</t>
+  </si>
+  <si>
+    <t>Marked On: 05/04/2021 07:57 AM</t>
+  </si>
+  <si>
+    <t>6763229955</t>
+  </si>
+  <si>
+    <t>9868568856</t>
+  </si>
+  <si>
+    <t>7728948997</t>
+  </si>
+  <si>
+    <t>8356367177</t>
+  </si>
+  <si>
+    <t>5361141434</t>
+  </si>
+  <si>
+    <t>8842439178</t>
   </si>
 </sst>
 </file>
@@ -650,6 +674,62 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoBrain/Files/Device_replacement.xlsx
+++ b/AutoBrain/Files/Device_replacement.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>device_number</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>8842439178</t>
+  </si>
+  <si>
+    <t>8753931199</t>
   </si>
 </sst>
 </file>
@@ -730,6 +733,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
